--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271297.218676044</v>
+        <v>1266583.30772168</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9794334.400240142</v>
+        <v>9791974.482678467</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>283.0103879733684</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4455572282725</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>77.35970163560626</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102173297</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>141.5644668791594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.45399773978493</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>181.4261959358951</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>4.756515304261043</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968138</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>61.78309951871465</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.2513845263515</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.45080330270152</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873669</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>278.5304850060981</v>
       </c>
       <c r="E11" t="n">
-        <v>95.97018318311328</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905902</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372796</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362809</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215419</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993882</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177854</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442492</v>
+        <v>40.78297506860809</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681706</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.8454531333891</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>50.23988828253061</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001149</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.53522688142858</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>57.98257224873302</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>40.78297506860812</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>19.76753335019504</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006889</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838911</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828923</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431756</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459996</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643969</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193188</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908607</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614782</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805025</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922218</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736781</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920541</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277593</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879333</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1033.670054195547</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="C2" t="n">
-        <v>1033.670054195547</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.670054195547</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>1033.670054195547</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.868375788301</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523741</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523741</v>
+        <v>1557.916092096458</v>
       </c>
       <c r="V2" t="n">
-        <v>1404.669089227259</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.670054195547</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="X2" t="n">
-        <v>1033.670054195547</v>
+        <v>1215.809282799976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1033.670054195547</v>
+        <v>1215.809282799976</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>655.0354850191686</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>504.3812545792609</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653889</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1552.274689874027</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1838.173504851615</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1628.110361530257</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1405.570359901324</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>986.1460363846227</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>806.83181946013</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>475.1433078875245</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>475.1433078875245</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>475.1433078875245</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>319.584495746727</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>319.584495746727</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>319.584495746727</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="X4" t="n">
-        <v>475.1433078875245</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y4" t="n">
-        <v>475.1433078875245</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.2273424897879</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>78.05184099271844</v>
+        <v>852.9611654812857</v>
       </c>
       <c r="D5" t="n">
-        <v>78.05184099271844</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="E5" t="n">
-        <v>78.05184099271844</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>65.19780656310026</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>56.07545509150749</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>56.07545509150749</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354907</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572953</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964324</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667842</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="W5" t="n">
-        <v>1257.17065663613</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="X5" t="n">
-        <v>867.7180515691867</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="Y5" t="n">
-        <v>471.2273424897879</v>
+        <v>1246.136666978355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.89759559188</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.89759559188</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182861</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>586.9613703518675</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>586.9613703518675</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>586.9613703518675</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208426</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338155</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="W7" t="n">
-        <v>821.0416925688844</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X7" t="n">
-        <v>586.9613703518675</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y7" t="n">
-        <v>586.9613703518675</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.829892374927</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>780.6543908778572</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>780.6543908778572</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.829892374927</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.829892374927</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.6682721353168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>714.463154201306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>558.8300411038207</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1799.375047403259</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1477.995821052384</v>
+        <v>1267.90355734308</v>
       </c>
       <c r="D11" t="n">
-        <v>1164.350967415245</v>
+        <v>986.5596330944957</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2441.725811257214</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2124.069481336464</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.375047403259</v>
+        <v>1917.981254259158</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>593.7970597253341</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="C13" t="n">
-        <v>495.388216937517</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5513789862254</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916217</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507884</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1445.985279912961</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1445.985279912961</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1232.342763301056</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V13" t="n">
-        <v>1232.342763301056</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.808636378428</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>858.5245893076044</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2088032704415</v>
+        <v>216.725795560948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1025.378848127173</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>711.7339944900341</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3048.850095426556</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3048.850095426556</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2864.893641007348</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2594.58310685706</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2295.380346971541</v>
+        <v>2317.807308897206</v>
       </c>
       <c r="X14" t="n">
-        <v>2295.380346971541</v>
+        <v>2000.150978976456</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.095209942062</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="C16" t="n">
-        <v>556.686367154245</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029536</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083499</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.915484758189</v>
@@ -5443,13 +5443,13 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922021</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1293.640913517784</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.640913517784</v>
+        <v>741.8597555915625</v>
       </c>
       <c r="W16" t="n">
-        <v>1082.106786595155</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243323</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871694</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5680,16 +5680,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.7795079292422</v>
@@ -6072,16 +6072,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.571845448837</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1942.349816659396</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6230,19 +6230,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>814.2514907939589</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1470.029462004518</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,22 +6361,22 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,13 +6385,13 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485128</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513243</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877775</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770104</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901626</v>
+        <v>3118.495954132881</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861583</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965144</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123139</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431945</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>701.10157434589</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041691</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395542</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000962</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124436</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584513</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6977,10 +6977,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7175,16 +7175,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,10 +7333,10 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128482</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
         <v>593.6560140511123</v>
@@ -7351,31 +7351,31 @@
         <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>2009.716291882317</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>548.7422328429437</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376824</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562882</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886045</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581418</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,10 +8222,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>423.8876955505291</v>
+        <v>380.2272642146506</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269462</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>178.0263139717787</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,19 +9720,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416874</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10683,7 +10683,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,7 +10823,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110179</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>461.5665676450056</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31.97792009466889</v>
       </c>
       <c r="E11" t="n">
-        <v>231.5091940567757</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.89138797581673</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456103</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.46972230201365</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326522</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.23488023219948</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.6248565600518</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.14193655604945</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.7385580955911</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854973.6076798178</v>
+        <v>853770.5124522973</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>854973.6076798178</v>
+        <v>853770.5124522973</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768732.7773784291</v>
+        <v>768732.7773784294</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>768732.7773784292</v>
+        <v>768732.7773784294</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333919</v>
+        <v>450830.445233392</v>
       </c>
       <c r="D2" t="n">
         <v>450830.4452333918</v>
       </c>
       <c r="E2" t="n">
-        <v>398397.5585610017</v>
+        <v>398397.558561002</v>
       </c>
       <c r="F2" t="n">
-        <v>398397.5585610017</v>
+        <v>398397.558561002</v>
       </c>
       <c r="G2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="H2" t="n">
         <v>450830.4452333921</v>
       </c>
-      <c r="H2" t="n">
-        <v>450830.4452333922</v>
-      </c>
       <c r="I2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333924</v>
       </c>
       <c r="J2" t="n">
         <v>450830.4452333915</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333916</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="L2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="M2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="N2" t="n">
         <v>450830.4452333922</v>
       </c>
-      <c r="N2" t="n">
-        <v>450830.4452333923</v>
-      </c>
       <c r="O2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="P2" t="n">
         <v>450830.4452333922</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668195</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.325536682</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539685</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26445,13 +26445,13 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
       </c>
       <c r="N4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
         <v>173460.5839839468</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8743.713682500675</v>
+        <v>-4392.267868205628</v>
       </c>
       <c r="C6" t="n">
-        <v>173461.2346093553</v>
+        <v>169466.3891658491</v>
       </c>
       <c r="D6" t="n">
-        <v>166292.9135876838</v>
+        <v>158556.624364292</v>
       </c>
       <c r="E6" t="n">
-        <v>107387.3098947522</v>
+        <v>107177.5783480628</v>
       </c>
       <c r="F6" t="n">
-        <v>219509.8713687966</v>
+        <v>219300.1398221073</v>
       </c>
       <c r="G6" t="n">
-        <v>171774.7663972437</v>
+        <v>171774.7663972439</v>
       </c>
       <c r="H6" t="n">
+        <v>219200.0919339256</v>
+      </c>
+      <c r="I6" t="n">
+        <v>219200.0919339259</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12674.45949121284</v>
+      </c>
+      <c r="K6" t="n">
+        <v>212960.3235311423</v>
+      </c>
+      <c r="L6" t="n">
+        <v>153728.8973860493</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175947.5674631146</v>
+      </c>
+      <c r="N6" t="n">
         <v>219200.0919339258</v>
       </c>
-      <c r="I6" t="n">
-        <v>219200.0919339258</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6158.17433663948</v>
-      </c>
-      <c r="K6" t="n">
-        <v>212960.3235311422</v>
-      </c>
-      <c r="L6" t="n">
-        <v>157777.7345965219</v>
-      </c>
-      <c r="M6" t="n">
-        <v>176999.2624743028</v>
-      </c>
-      <c r="N6" t="n">
-        <v>219200.0919339259</v>
-      </c>
       <c r="O6" t="n">
-        <v>191432.3978911547</v>
+        <v>191432.3978911545</v>
       </c>
       <c r="P6" t="n">
         <v>219200.0919339258</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,16 +26814,16 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014442</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085244</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.2816569208525</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924606</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551367</v>
+        <v>17.58004954287431</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.28165692085244</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>59.2816569208525</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,13 +27382,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>98.57632952213049</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>299.2799368570494</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>97.85427204747435</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.177742386313</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,10 +27552,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>12.35929864896156</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>124.8917514574866</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>124.4997479986749</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>204.1318830803786</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>145.5218557922907</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>92.22012450067486</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>94.30630510826938</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.9051352016867</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634528836</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,17 +28980,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,7 +29302,7 @@
         <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431647</v>
@@ -29314,10 +29314,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431647</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566864</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893045</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254552</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.8683420224697</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.71049010668843</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>128.2979821082769</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>395.494063112452</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>215.065246413586</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069763</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,10 +34942,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>274.1626439528019</v>
+        <v>230.5022126169233</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776343</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257278</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815418</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167518</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488434</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873208</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,10 +36610,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698319</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527985</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907918</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>424.9260266620924</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338796</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155182</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273743</v>
+        <v>75.16693519537682</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653375</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>271.2165915595485</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.16725411684092</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>374.483202825691</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453558</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
